--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H2">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.41250130890646</v>
+        <v>2.715641666666667</v>
       </c>
       <c r="N2">
-        <v>2.41250130890646</v>
+        <v>8.146925</v>
       </c>
       <c r="O2">
-        <v>0.1778618053284211</v>
+        <v>0.1838906555826552</v>
       </c>
       <c r="P2">
-        <v>0.1778618053284211</v>
+        <v>0.1838906555826552</v>
       </c>
       <c r="Q2">
-        <v>0.9238478148209028</v>
+        <v>6.148874444686111</v>
       </c>
       <c r="R2">
-        <v>0.9238478148209028</v>
+        <v>55.339870002175</v>
       </c>
       <c r="S2">
-        <v>0.02008006151180511</v>
+        <v>0.07567057949968704</v>
       </c>
       <c r="T2">
-        <v>0.02008006151180511</v>
+        <v>0.07567057949968703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H3">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I3">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J3">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.598967504112281</v>
+        <v>9.604052333333334</v>
       </c>
       <c r="N3">
-        <v>9.598967504112281</v>
+        <v>28.812157</v>
       </c>
       <c r="O3">
-        <v>0.7076844614621741</v>
+        <v>0.65034187002831</v>
       </c>
       <c r="P3">
-        <v>0.7076844614621741</v>
+        <v>0.6503418700283099</v>
       </c>
       <c r="Q3">
-        <v>3.675846773832704</v>
+        <v>21.74591467008522</v>
       </c>
       <c r="R3">
-        <v>3.675846773832704</v>
+        <v>195.713232030767</v>
       </c>
       <c r="S3">
-        <v>0.07989544180589971</v>
+        <v>0.2676141755111241</v>
       </c>
       <c r="T3">
-        <v>0.07989544180589971</v>
+        <v>0.267614175511124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H4">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I4">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J4">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5339493285285311</v>
+        <v>1.025443666666667</v>
       </c>
       <c r="N4">
-        <v>0.5339493285285311</v>
+        <v>3.076331</v>
       </c>
       <c r="O4">
-        <v>0.03936544663224677</v>
+        <v>0.06943828798954764</v>
       </c>
       <c r="P4">
-        <v>0.03936544663224677</v>
+        <v>0.06943828798954764</v>
       </c>
       <c r="Q4">
-        <v>0.2044715659075723</v>
+        <v>2.321854327773444</v>
       </c>
       <c r="R4">
-        <v>0.2044715659075723</v>
+        <v>20.896688949961</v>
       </c>
       <c r="S4">
-        <v>0.004444240225469511</v>
+        <v>0.02857369492205362</v>
       </c>
       <c r="T4">
-        <v>0.004444240225469511</v>
+        <v>0.02857369492205362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H5">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I5">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J5">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.01849067210604</v>
+        <v>1.422560333333333</v>
       </c>
       <c r="N5">
-        <v>1.01849067210604</v>
+        <v>4.267681000000001</v>
       </c>
       <c r="O5">
-        <v>0.07508828657715808</v>
+        <v>0.09632918639948715</v>
       </c>
       <c r="P5">
-        <v>0.07508828657715808</v>
+        <v>0.09632918639948714</v>
       </c>
       <c r="Q5">
-        <v>0.3900227445957918</v>
+        <v>3.221023225201223</v>
       </c>
       <c r="R5">
-        <v>0.3900227445957918</v>
+        <v>28.989209026811</v>
       </c>
       <c r="S5">
-        <v>0.008477241139553709</v>
+        <v>0.03963923742882178</v>
       </c>
       <c r="T5">
-        <v>0.008477241139553709</v>
+        <v>0.03963923742882178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H6">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J6">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.41250130890646</v>
+        <v>2.715641666666667</v>
       </c>
       <c r="N6">
-        <v>2.41250130890646</v>
+        <v>8.146925</v>
       </c>
       <c r="O6">
-        <v>0.1778618053284211</v>
+        <v>0.1838906555826552</v>
       </c>
       <c r="P6">
-        <v>0.1778618053284211</v>
+        <v>0.1838906555826552</v>
       </c>
       <c r="Q6">
-        <v>4.859297095117312</v>
+        <v>5.673596418394444</v>
       </c>
       <c r="R6">
-        <v>4.859297095117312</v>
+        <v>51.06236776555</v>
       </c>
       <c r="S6">
-        <v>0.1056180282171338</v>
+        <v>0.06982161250638005</v>
       </c>
       <c r="T6">
-        <v>0.1056180282171338</v>
+        <v>0.06982161250638004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H7">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J7">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.598967504112281</v>
+        <v>9.604052333333334</v>
       </c>
       <c r="N7">
-        <v>9.598967504112281</v>
+        <v>28.812157</v>
       </c>
       <c r="O7">
-        <v>0.7076844614621741</v>
+        <v>0.65034187002831</v>
       </c>
       <c r="P7">
-        <v>0.7076844614621741</v>
+        <v>0.6503418700283099</v>
       </c>
       <c r="Q7">
-        <v>19.33438739977356</v>
+        <v>20.06506145096689</v>
       </c>
       <c r="R7">
-        <v>19.33438739977356</v>
+        <v>180.585553058702</v>
       </c>
       <c r="S7">
-        <v>0.4202377080426239</v>
+        <v>0.2469289040376566</v>
       </c>
       <c r="T7">
-        <v>0.4202377080426239</v>
+        <v>0.2469289040376566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H8">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I8">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J8">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5339493285285311</v>
+        <v>1.025443666666667</v>
       </c>
       <c r="N8">
-        <v>0.5339493285285311</v>
+        <v>3.076331</v>
       </c>
       <c r="O8">
-        <v>0.03936544663224677</v>
+        <v>0.06943828798954764</v>
       </c>
       <c r="P8">
-        <v>0.03936544663224677</v>
+        <v>0.06943828798954764</v>
       </c>
       <c r="Q8">
-        <v>1.075488917448348</v>
+        <v>2.142386304451778</v>
       </c>
       <c r="R8">
-        <v>1.075488917448348</v>
+        <v>19.281476740066</v>
       </c>
       <c r="S8">
-        <v>0.02337601850778213</v>
+        <v>0.0263650875665806</v>
       </c>
       <c r="T8">
-        <v>0.02337601850778213</v>
+        <v>0.0263650875665806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H9">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I9">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J9">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.01849067210604</v>
+        <v>1.422560333333333</v>
       </c>
       <c r="N9">
-        <v>1.01849067210604</v>
+        <v>4.267681000000001</v>
       </c>
       <c r="O9">
-        <v>0.07508828657715808</v>
+        <v>0.09632918639948715</v>
       </c>
       <c r="P9">
-        <v>0.07508828657715808</v>
+        <v>0.09632918639948714</v>
       </c>
       <c r="Q9">
-        <v>2.051459514694444</v>
+        <v>2.972053828462889</v>
       </c>
       <c r="R9">
-        <v>2.051459514694444</v>
+        <v>26.748484456166</v>
       </c>
       <c r="S9">
-        <v>0.0445889816300838</v>
+        <v>0.03657531756863364</v>
       </c>
       <c r="T9">
-        <v>0.0445889816300838</v>
+        <v>0.03657531756863363</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H10">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I10">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J10">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.41250130890646</v>
+        <v>2.715641666666667</v>
       </c>
       <c r="N10">
-        <v>2.41250130890646</v>
+        <v>8.146925</v>
       </c>
       <c r="O10">
-        <v>0.1778618053284211</v>
+        <v>0.1838906555826552</v>
       </c>
       <c r="P10">
-        <v>0.1778618053284211</v>
+        <v>0.1838906555826552</v>
       </c>
       <c r="Q10">
-        <v>0.4235028948946473</v>
+        <v>0.5174401735944444</v>
       </c>
       <c r="R10">
-        <v>0.4235028948946473</v>
+        <v>4.656961562349999</v>
       </c>
       <c r="S10">
-        <v>0.009204940514537701</v>
+        <v>0.006367831729943391</v>
       </c>
       <c r="T10">
-        <v>0.009204940514537701</v>
+        <v>0.00636783172994339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H11">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I11">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J11">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.598967504112281</v>
+        <v>9.604052333333334</v>
       </c>
       <c r="N11">
-        <v>9.598967504112281</v>
+        <v>28.812157</v>
       </c>
       <c r="O11">
-        <v>0.7076844614621741</v>
+        <v>0.65034187002831</v>
       </c>
       <c r="P11">
-        <v>0.7076844614621741</v>
+        <v>0.6503418700283099</v>
       </c>
       <c r="Q11">
-        <v>1.685052153540124</v>
+        <v>1.829962534294889</v>
       </c>
       <c r="R11">
-        <v>1.685052153540124</v>
+        <v>16.469662808654</v>
       </c>
       <c r="S11">
-        <v>0.03662502670988597</v>
+        <v>0.02252027207231079</v>
       </c>
       <c r="T11">
-        <v>0.03662502670988597</v>
+        <v>0.02252027207231079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H12">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I12">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J12">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5339493285285311</v>
+        <v>1.025443666666667</v>
       </c>
       <c r="N12">
-        <v>0.5339493285285311</v>
+        <v>3.076331</v>
       </c>
       <c r="O12">
-        <v>0.03936544663224677</v>
+        <v>0.06943828798954764</v>
       </c>
       <c r="P12">
-        <v>0.03936544663224677</v>
+        <v>0.06943828798954764</v>
       </c>
       <c r="Q12">
-        <v>0.09373221292111376</v>
+        <v>0.1953887198757778</v>
       </c>
       <c r="R12">
-        <v>0.09373221292111376</v>
+        <v>1.758498478882</v>
       </c>
       <c r="S12">
-        <v>0.002037292907878395</v>
+        <v>0.002404533999467098</v>
       </c>
       <c r="T12">
-        <v>0.002037292907878395</v>
+        <v>0.002404533999467098</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H13">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I13">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J13">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.01849067210604</v>
+        <v>1.422560333333333</v>
       </c>
       <c r="N13">
-        <v>1.01849067210604</v>
+        <v>4.267681000000001</v>
       </c>
       <c r="O13">
-        <v>0.07508828657715808</v>
+        <v>0.09632918639948715</v>
       </c>
       <c r="P13">
-        <v>0.07508828657715808</v>
+        <v>0.09632918639948714</v>
       </c>
       <c r="Q13">
-        <v>0.1787910939022944</v>
+        <v>0.2710555942868889</v>
       </c>
       <c r="R13">
-        <v>0.1787910939022944</v>
+        <v>2.439500348582</v>
       </c>
       <c r="S13">
-        <v>0.003886068793718993</v>
+        <v>0.003335721696845932</v>
       </c>
       <c r="T13">
-        <v>0.003886068793718993</v>
+        <v>0.003335721696845932</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H14">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I14">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J14">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.41250130890646</v>
+        <v>2.715641666666667</v>
       </c>
       <c r="N14">
-        <v>2.41250130890646</v>
+        <v>8.146925</v>
       </c>
       <c r="O14">
-        <v>0.1778618053284211</v>
+        <v>0.1838906555826552</v>
       </c>
       <c r="P14">
-        <v>0.1778618053284211</v>
+        <v>0.1838906555826552</v>
       </c>
       <c r="Q14">
-        <v>1.976456619232781</v>
+        <v>2.602759684294445</v>
       </c>
       <c r="R14">
-        <v>1.976456619232781</v>
+        <v>23.42483715865</v>
       </c>
       <c r="S14">
-        <v>0.0429587750849445</v>
+        <v>0.03203063184664477</v>
       </c>
       <c r="T14">
-        <v>0.0429587750849445</v>
+        <v>0.03203063184664477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H15">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I15">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J15">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.598967504112281</v>
+        <v>9.604052333333334</v>
       </c>
       <c r="N15">
-        <v>9.598967504112281</v>
+        <v>28.812157</v>
       </c>
       <c r="O15">
-        <v>0.7076844614621741</v>
+        <v>0.65034187002831</v>
       </c>
       <c r="P15">
-        <v>0.7076844614621741</v>
+        <v>0.6503418700283099</v>
       </c>
       <c r="Q15">
-        <v>7.864013499707779</v>
+        <v>9.204837488642891</v>
       </c>
       <c r="R15">
-        <v>7.864013499707779</v>
+        <v>82.84353739778601</v>
       </c>
       <c r="S15">
-        <v>0.1709262849037646</v>
+        <v>0.1132785184072186</v>
       </c>
       <c r="T15">
-        <v>0.1709262849037646</v>
+        <v>0.1132785184072185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H16">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I16">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J16">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5339493285285311</v>
+        <v>1.025443666666667</v>
       </c>
       <c r="N16">
-        <v>0.5339493285285311</v>
+        <v>3.076331</v>
       </c>
       <c r="O16">
-        <v>0.03936544663224677</v>
+        <v>0.06943828798954764</v>
       </c>
       <c r="P16">
-        <v>0.03936544663224677</v>
+        <v>0.06943828798954764</v>
       </c>
       <c r="Q16">
-        <v>0.4374412900043042</v>
+        <v>0.9828187079597779</v>
       </c>
       <c r="R16">
-        <v>0.4374412900043042</v>
+        <v>8.845368371638001</v>
       </c>
       <c r="S16">
-        <v>0.009507894991116738</v>
+        <v>0.01209497150144632</v>
       </c>
       <c r="T16">
-        <v>0.009507894991116738</v>
+        <v>0.01209497150144632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H17">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I17">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J17">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.01849067210604</v>
+        <v>1.422560333333333</v>
       </c>
       <c r="N17">
-        <v>1.01849067210604</v>
+        <v>4.267681000000001</v>
       </c>
       <c r="O17">
-        <v>0.07508828657715808</v>
+        <v>0.09632918639948715</v>
       </c>
       <c r="P17">
-        <v>0.07508828657715808</v>
+        <v>0.09632918639948714</v>
       </c>
       <c r="Q17">
-        <v>0.8344047827370018</v>
+        <v>1.363428293770889</v>
       </c>
       <c r="R17">
-        <v>0.8344047827370018</v>
+        <v>12.270854643938</v>
       </c>
       <c r="S17">
-        <v>0.01813599501380157</v>
+        <v>0.0167789097051858</v>
       </c>
       <c r="T17">
-        <v>0.01813599501380157</v>
+        <v>0.0167789097051858</v>
       </c>
     </row>
   </sheetData>
